--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4563.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4563.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Barry J McCarthy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>14/07/2016</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>19/07/2016</t>
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1015,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1270,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -1216,7 +1277,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1317,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>11/01/2018</t>
@@ -1264,7 +1324,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4106</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,7 +1364,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>13/01/2018</t>
@@ -1312,7 +1371,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1411,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -1360,7 +1418,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1400,7 +1458,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -1408,7 +1465,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1448,7 +1505,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>12/03/2018</t>
@@ -1456,7 +1512,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4152</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1508,7 +1564,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4156</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1668,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1768,7 +1824,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1876,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1872,7 +1928,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1924,7 +1980,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2028,7 +2084,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2068,7 +2124,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>08/01/2021</t>
@@ -2076,7 +2131,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2116,7 +2171,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>18/01/2021</t>
@@ -2124,7 +2178,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2176,7 +2230,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2228,7 +2282,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2280,7 +2334,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2320,7 +2374,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -2328,7 +2381,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2380,7 +2433,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2419,7 +2472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2441,7 +2494,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2478,7 +2531,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2515,7 +2568,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2552,7 +2605,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2589,7 +2642,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2626,7 +2679,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2663,7 +2716,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2700,7 +2753,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2737,7 +2790,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2774,7 +2827,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2811,7 +2864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2848,7 +2901,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2885,7 +2938,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2922,7 +2975,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2959,7 +3012,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2996,7 +3049,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3033,7 +3086,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4106</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3070,7 +3123,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3107,7 +3160,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3144,7 +3197,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3181,7 +3234,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4152</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3218,7 +3271,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4156</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3255,7 +3308,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3292,7 +3345,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3329,7 +3382,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3366,7 +3419,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3403,7 +3456,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3440,7 +3493,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3477,7 +3530,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3514,7 +3567,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3551,7 +3604,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3588,7 +3641,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3625,7 +3678,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3662,7 +3715,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3699,7 +3752,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3736,7 +3789,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3773,7 +3826,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3810,7 +3863,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3847,7 +3900,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3873,6 +3926,551 @@
       <c r="G39" t="inlineStr">
         <is>
           <t>1/38</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4113</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4156</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.86%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10.06%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.22%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.17%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3.94%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4439</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.68%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4563.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4563.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3989,9 +3990,6 @@
       <c r="B2" t="n">
         <v>9</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4007,9 +4005,6 @@
       <c r="B3" t="n">
         <v>9</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4095,7 +4090,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4121,7 +4115,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4164,15 +4157,459 @@
           <t>4295</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10.06%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.22%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.17%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3.94%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4439</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.68%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4113</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4156</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4180,29 +4617,12 @@
           <t>4301</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10.06%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4210,27 +4630,14 @@
           <t>4391</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.22%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4240,27 +4647,14 @@
           <t>4394</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.17%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4270,27 +4664,14 @@
           <t>4397</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.94%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4302,13 +4683,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4318,13 +4692,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4332,17 +4699,12 @@
           <t>4442</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4350,27 +4712,14 @@
           <t>4444</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4380,23 +4729,14 @@
           <t>4446</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4406,25 +4746,12 @@
           <t>4466</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4432,15 +4759,14 @@
           <t>4467</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4450,27 +4776,14 @@
           <t>4468</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>9</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.68%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4563.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4563.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -714,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>14/07/2016</t>
@@ -813,6 +812,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>19/07/2016</t>
@@ -1016,6 +1016,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -1028,7 +1029,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1271,6 +1272,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -1318,6 +1320,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>11/01/2018</t>
@@ -1365,6 +1368,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>13/01/2018</t>
@@ -1412,6 +1416,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -1459,6 +1464,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -1506,6 +1512,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>12/03/2018</t>
@@ -2125,6 +2132,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>08/01/2021</t>
@@ -2172,6 +2180,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>18/01/2021</t>
@@ -2375,6 +2384,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -3933,861 +3943,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4113</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4152</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4156</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.92%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4158</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4163</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4257</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.86%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4301</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10.06%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.22%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.17%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.94%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4439</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4442</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.68%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4113</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4152</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4156</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4158</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4163</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4257</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4301</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4439</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4442</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>